--- a/xpmsrequests/data/ExcelData/TestSuiteRestServices.xlsx
+++ b/xpmsrequests/data/ExcelData/TestSuiteRestServices.xlsx
@@ -43,7 +43,7 @@
     <t xml:space="preserve">Service</t>
   </si>
   <si>
-    <t xml:space="preserve">upload</t>
+    <t xml:space="preserve">serviceupload</t>
   </si>
   <si>
     <t xml:space="preserve">Y</t>
@@ -52,7 +52,7 @@
     <t xml:space="preserve">TC02</t>
   </si>
   <si>
-    <t xml:space="preserve">insightingest</t>
+    <t xml:space="preserve">serviceinsightingest</t>
   </si>
   <si>
     <t xml:space="preserve">N</t>
@@ -61,37 +61,37 @@
     <t xml:space="preserve">TC03</t>
   </si>
   <si>
-    <t xml:space="preserve">extractDocumentMetadata</t>
+    <t xml:space="preserve">serviceextractDocumentMetadata</t>
   </si>
   <si>
     <t xml:space="preserve">TC04</t>
   </si>
   <si>
-    <t xml:space="preserve">convertDocument</t>
+    <t xml:space="preserve">serviceconvertDocument</t>
   </si>
   <si>
     <t xml:space="preserve">TC05</t>
   </si>
   <si>
-    <t xml:space="preserve">classifyDocument</t>
+    <t xml:space="preserve">serviceclassifyDocument</t>
   </si>
   <si>
     <t xml:space="preserve">TC06</t>
   </si>
   <si>
-    <t xml:space="preserve">extractDocumentElements</t>
+    <t xml:space="preserve">serviceextractDocumentElements</t>
   </si>
   <si>
     <t xml:space="preserve">TC07</t>
   </si>
   <si>
-    <t xml:space="preserve">extractDocumentText</t>
+    <t xml:space="preserve">serviceextractDocumentText</t>
   </si>
   <si>
     <t xml:space="preserve">TC08</t>
   </si>
   <si>
-    <t xml:space="preserve">Upload-insightingest</t>
+    <t xml:space="preserve">serviceupload-serviceinsightingest</t>
   </si>
 </sst>
 </file>
@@ -191,15 +191,17 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
+      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.0102040816327"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="37.9336734693878"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="19.1683673469388"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.7704081632653"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.469387755102"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="37.1224489795918"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="18.6275510204082"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.2295918367347"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
